--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>0.3964667552657778</v>
+        <v>0.011808937359</v>
       </c>
       <c r="R2">
-        <v>3.568200797392</v>
+        <v>0.106280436231</v>
       </c>
       <c r="S2">
-        <v>0.5939979557006548</v>
+        <v>0.01344092355887988</v>
       </c>
       <c r="T2">
-        <v>0.5939979557006551</v>
+        <v>0.01344092355887988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,43 +614,43 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>0.2241824945297778</v>
+        <v>0.1815234432818888</v>
       </c>
       <c r="R3">
-        <v>2.017642450768</v>
+        <v>1.633710989537</v>
       </c>
       <c r="S3">
-        <v>0.3358766950467075</v>
+        <v>0.2066098456722735</v>
       </c>
       <c r="T3">
-        <v>0.3358766950467076</v>
+        <v>0.2066098456722735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -655,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.021434</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.064302</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.07012534925263751</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.07012534925263753</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>0.02989905107933333</v>
+        <v>0.06902299400144443</v>
       </c>
       <c r="R4">
-        <v>0.269091459714</v>
+        <v>0.621206946013</v>
       </c>
       <c r="S4">
-        <v>0.04479562279215006</v>
+        <v>0.07856191950001172</v>
       </c>
       <c r="T4">
-        <v>0.04479562279215007</v>
+        <v>0.07856191950001172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.852656</v>
+      </c>
+      <c r="I5">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J5">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.272241</v>
+      </c>
+      <c r="O5">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P5">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q5">
+        <v>0.025791991344</v>
+      </c>
+      <c r="R5">
+        <v>0.232127922096</v>
+      </c>
+      <c r="S5">
+        <v>0.0293564250149729</v>
+      </c>
+      <c r="T5">
+        <v>0.02935642501497289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.852656</v>
+      </c>
+      <c r="I6">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J6">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N6">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P6">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q6">
+        <v>0.3964667552657777</v>
+      </c>
+      <c r="R6">
+        <v>3.568200797391999</v>
+      </c>
+      <c r="S6">
+        <v>0.4512581605916584</v>
+      </c>
+      <c r="T6">
+        <v>0.4512581605916582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.852656</v>
+      </c>
+      <c r="I7">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J7">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.591243</v>
+      </c>
+      <c r="O7">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P7">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q7">
+        <v>0.1507536546008889</v>
+      </c>
+      <c r="R7">
+        <v>1.356782891408</v>
+      </c>
+      <c r="S7">
+        <v>0.1715876954981083</v>
+      </c>
+      <c r="T7">
+        <v>0.1715876954981083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.021434</v>
+      </c>
+      <c r="H8">
+        <v>0.064302</v>
+      </c>
+      <c r="I8">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J8">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.272241</v>
+      </c>
+      <c r="O8">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P8">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q8">
+        <v>0.001945071198</v>
+      </c>
+      <c r="R8">
+        <v>0.017505640782</v>
+      </c>
+      <c r="S8">
+        <v>0.002213878564524013</v>
+      </c>
+      <c r="T8">
+        <v>0.002213878564524013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
         <v>0.021434</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>0.064302</v>
       </c>
-      <c r="I5">
-        <v>0.07012534925263751</v>
-      </c>
-      <c r="J5">
-        <v>0.07012534925263753</v>
-      </c>
-      <c r="K5">
+      <c r="I9">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J9">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.7887676666666668</v>
-      </c>
-      <c r="N5">
-        <v>2.366303</v>
-      </c>
-      <c r="O5">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="P5">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="Q5">
-        <v>0.01690644616733333</v>
-      </c>
-      <c r="R5">
-        <v>0.152158015506</v>
-      </c>
-      <c r="S5">
-        <v>0.02532972646048744</v>
-      </c>
-      <c r="T5">
-        <v>0.02532972646048745</v>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N9">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q9">
+        <v>0.02989905107933332</v>
+      </c>
+      <c r="R9">
+        <v>0.2690914597139999</v>
+      </c>
+      <c r="S9">
+        <v>0.03403107729537446</v>
+      </c>
+      <c r="T9">
+        <v>0.03403107729537446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.021434</v>
+      </c>
+      <c r="H10">
+        <v>0.064302</v>
+      </c>
+      <c r="I10">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J10">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.591243</v>
+      </c>
+      <c r="O10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q10">
+        <v>0.01136890082066667</v>
+      </c>
+      <c r="R10">
+        <v>0.102320107386</v>
+      </c>
+      <c r="S10">
+        <v>0.01294007430419696</v>
+      </c>
+      <c r="T10">
+        <v>0.01294007430419696</v>
       </c>
     </row>
   </sheetData>
